--- a/myapp/files/9_MethodComparePercent/Scenario 331.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 331.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>3912</v>
+        <v>9462</v>
       </c>
       <c r="F2" t="n">
-        <v>8.45015660438492</v>
+        <v>1.52937031062607</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>6.45161290322581</v>
+        <v>1.02739726027397</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2673</v>
+        <v>9161</v>
       </c>
       <c r="F3" t="n">
-        <v>5.77384166756669</v>
+        <v>1.48071881374397</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2258064516129</v>
+        <v>1.02739726027397</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>2112</v>
+        <v>26879</v>
       </c>
       <c r="F4" t="n">
-        <v>4.56204773733664</v>
+        <v>4.34453018170768</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2258064516129</v>
+        <v>3.42465753424658</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>2237</v>
+        <v>32614</v>
       </c>
       <c r="F5" t="n">
-        <v>4.83205529754833</v>
+        <v>5.27149474854773</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>6.45161290322581</v>
+        <v>6.50684931506849</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>5032</v>
+        <v>42947</v>
       </c>
       <c r="F6" t="n">
-        <v>10.8694243438816</v>
+        <v>6.94164729765988</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -745,16 +745,16 @@
         <v>6.06060606060606</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J6" t="n">
-        <v>12.9032258064516</v>
+        <v>7.19178082191781</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>13.6363636363636</v>
+        <v>12.1212121212121</v>
       </c>
     </row>
     <row r="7">
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6866</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.10977135412794</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.02739726027397</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>10781</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.74256407935528</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.05479452054794</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>41816</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6.75884051037198</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>3.03030303030303</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.19178082191781</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>4488</v>
+        <v>72720</v>
       </c>
       <c r="F10" t="n">
-        <v>9.69435144184037</v>
+        <v>11.7539430341078</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
@@ -897,10 +897,10 @@
         <v>7.57575757575758</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="J10" t="n">
-        <v>6.45161290322581</v>
+        <v>11.986301369863</v>
       </c>
       <c r="K10" t="n">
         <v>12</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1485</v>
+        <v>71280</v>
       </c>
       <c r="F11" t="n">
-        <v>3.20768981531483</v>
+        <v>11.5211916868977</v>
       </c>
       <c r="G11" t="n">
         <v>7</v>
@@ -935,10 +935,10 @@
         <v>10.6060606060606</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2258064516129</v>
+        <v>9.58904109589041</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>1155</v>
+        <v>4257</v>
       </c>
       <c r="F12" t="n">
-        <v>2.49486985635598</v>
+        <v>0.688071170189725</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -973,10 +973,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2258064516129</v>
+        <v>1.36986301369863</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>66</v>
+        <v>15032</v>
       </c>
       <c r="F13" t="n">
-        <v>0.14256399179177</v>
+        <v>2.42966545226496</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1011,16 +1011,16 @@
         <v>4.54545454545454</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2258064516129</v>
+        <v>3.08219178082192</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51515151515152</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="14">
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>600</v>
+        <v>48202</v>
       </c>
       <c r="F14" t="n">
-        <v>1.29603628901609</v>
+        <v>7.79102808209657</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -1049,16 +1049,16 @@
         <v>6.06060606060606</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J14" t="n">
-        <v>6.45161290322581</v>
+        <v>8.21917808219178</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>10.6060606060606</v>
+        <v>9.09090909090909</v>
       </c>
     </row>
     <row r="15">
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>4308</v>
+        <v>59304</v>
       </c>
       <c r="F15" t="n">
-        <v>9.30554055513554</v>
+        <v>9.58547631593409</v>
       </c>
       <c r="G15" t="n">
         <v>18</v>
@@ -1087,10 +1087,10 @@
         <v>27.2727272727273</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="J15" t="n">
-        <v>9.67741935483871</v>
+        <v>11.986301369863</v>
       </c>
       <c r="K15" t="n">
         <v>5</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>1728</v>
+        <v>48134</v>
       </c>
       <c r="F16" t="n">
-        <v>3.73258451236635</v>
+        <v>7.7800370462561</v>
       </c>
       <c r="G16" t="n">
         <v>6</v>
@@ -1125,10 +1125,10 @@
         <v>9.09090909090909</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2258064516129</v>
+        <v>7.53424657534247</v>
       </c>
       <c r="K16" t="n">
         <v>6</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>752</v>
+        <v>4272</v>
       </c>
       <c r="F17" t="n">
-        <v>1.6243654822335</v>
+        <v>0.690495663389829</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2258064516129</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>1536</v>
+        <v>8835</v>
       </c>
       <c r="F18" t="n">
-        <v>3.3178528998812</v>
+        <v>1.42802649486169</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>6.45161290322581</v>
+        <v>1.71232876712329</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>5832</v>
+        <v>26373</v>
       </c>
       <c r="F19" t="n">
-        <v>12.5974727292364</v>
+        <v>4.26274394442415</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1239,10 +1239,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2258064516129</v>
+        <v>3.08219178082192</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>3327</v>
+        <v>29604</v>
       </c>
       <c r="F20" t="n">
-        <v>7.18652122259423</v>
+        <v>4.78497977972671</v>
       </c>
       <c r="G20" t="n">
         <v>10</v>
@@ -1277,10 +1277,10 @@
         <v>15.1515151515152</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>6.45161290322581</v>
+        <v>4.79452054794521</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>273</v>
+        <v>19474</v>
       </c>
       <c r="F21" t="n">
-        <v>0.589696511502322</v>
+        <v>3.14763870525598</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,16 +1315,16 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2258064516129</v>
+        <v>3.08219178082192</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>4.54545454545454</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="22">
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3968</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.641359267867707</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.342465753424658</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5022</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.811720323395066</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.342465753424658</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1947</v>
+        <v>6969</v>
       </c>
       <c r="F24" t="n">
-        <v>4.20563775785722</v>
+        <v>1.12641954076866</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2258064516129</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>1728</v>
+        <v>8466</v>
       </c>
       <c r="F25" t="n">
-        <v>3.73258451236635</v>
+        <v>1.36838396213911</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2258064516129</v>
+        <v>1.02739726027397</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>1104</v>
+        <v>6248</v>
       </c>
       <c r="F26" t="n">
-        <v>2.38470677178961</v>
+        <v>1.00988223428363</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2258064516129</v>
+        <v>1.02739726027397</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
